--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730514563339" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730538817625" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873053884762" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730539467626" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730540098002" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291165529401" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911669924002" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911669954" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911670543966" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291167115406" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730514232976.csv</t>
+          <t>go_stims-16502911654724011.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730514392974.csv</t>
+          <t>GNG_stims-16502911654953978.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873051440304.csv</t>
+          <t>go_stims-16502911654964354.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873051455334.csv</t>
+          <t>GNG_stims-16502911655274012.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730525097642.csv</t>
+          <t>TB-16502911669714012.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498730516767976.csv</t>
+          <t>ZB-match_6-16502911657913961.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873051713789.csv</t>
+          <t>OB-1650291166536398.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1649873052570763.csv</t>
+          <t>TB-16502911667074335.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730519867735.csv</t>
+          <t>ZB-match_4-16502911657573974.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730535587964.csv</t>
+          <t>TB-1650291166939404.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730518117964.csv</t>
+          <t>OB-16502911665953987.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873053857797.csv</t>
+          <t>OB-16502911664724014.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730535837696.csv</t>
+          <t>ZB-match_5-16502911655624046.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730539137988.csv</t>
+          <t>MM_stims-16502911670233994.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873053890799.csv</t>
+          <t>ZM_stims-16502911669973984.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730539297986.csv</t>
+          <t>MM_stims-16502911670383992.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873053914762.csv</t>
+          <t>ZM_stims-16502911670264156.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730539457633.csv</t>
+          <t>MM_stims-16502911670533986.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730539317713.csv</t>
+          <t>ZM_stims-1650291167039399.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730539497628.csv</t>
+          <t>SAT_stims-1650291167057397.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873053961799.csv</t>
+          <t>SAT_stims-16502911670704048.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873053993799.csv</t>
+          <t>vSAT_stims-16502911671003985.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730539777987.csv</t>
+          <t>vSAT_stims-16502911670844.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291165529401" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911669924002" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911669954" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911670543966" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291167115406" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778114935884" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477813861685" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778138626602" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477813924661" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778139856637" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911654724011.csv</t>
+          <t>go_stims-16504778114525573.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911654953978.csv</t>
+          <t>GNG_stims-16504778114765916.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911654964354.csv</t>
+          <t>go_stims-16504778114775524.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911655274012.csv</t>
+          <t>GNG_stims-16504778114925544.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502911669714012.csv</t>
+          <t>OB-16504778130225558.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911657913961.csv</t>
+          <t>TB-1650477813841696.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650291166536398.csv</t>
+          <t>TB-16504778137675872.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911667074335.csv</t>
+          <t>ZB-match_1-16504778125755532.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502911657573974.csv</t>
+          <t>OB-1650477812779585.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650291166939404.csv</t>
+          <t>ZB-match_9-1650477812652555.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911665953987.csv</t>
+          <t>ZB-match_3-16504778127135904.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911664724014.csv</t>
+          <t>OB-16504778131585526.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502911655624046.csv</t>
+          <t>TB-16504778137115867.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911670233994.csv</t>
+          <t>MM_stims-16504778138776953.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911669973984.csv</t>
+          <t>ZM_stims-16504778138646638.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911670383992.csv</t>
+          <t>MM_stims-16504778139086642.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911670264156.csv</t>
+          <t>ZM_stims-16504778138786597.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911670533986.csv</t>
+          <t>MM_stims-1650477813924661.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291167039399.csv</t>
+          <t>ZM_stims-16504778139096618.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291167057397.csv</t>
+          <t>vSAT_stims-1650477813970661.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911670704048.csv</t>
+          <t>SAT_stims-16504778139286602.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911671003985.csv</t>
+          <t>SAT_stims-16504778139396648.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911670844.csv</t>
+          <t>vSAT_stims-16504778139546614.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778114935884" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477813861685" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778138626602" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477813924661" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778139856637" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996101607332" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961035913308" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961035913308" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961036393301" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961037033315" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778114525573.csv</t>
+          <t>go_stims-16509961015753045.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778114765916.csv</t>
+          <t>GNG_stims-16509961015913374.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778114775524.csv</t>
+          <t>go_stims-16509961015913374.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778114925544.csv</t>
+          <t>GNG_stims-1650996101607332.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778130225558.csv</t>
+          <t>ZB-match_0-16509961018873012.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650477813841696.csv</t>
+          <t>ZB-match_0-16509961017352948.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778137675872.csv</t>
+          <t>TB-16509961034713292.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778125755532.csv</t>
+          <t>OB-1650996102479317.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650477812779585.csv</t>
+          <t>ZB-match_5-16509961019753022.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-1650477812652555.csv</t>
+          <t>TB-16509961035593297.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778127135904.csv</t>
+          <t>TB-16509961029912965.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778131585526.csv</t>
+          <t>OB-16509961026473417.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778137115867.csv</t>
+          <t>OB-16509961021593323.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778138776953.csv</t>
+          <t>MM_stims-16509961036073291.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778138646638.csv</t>
+          <t>ZM_stims-16509961035913308.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778139086642.csv</t>
+          <t>MM_stims-16509961036232955.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778138786597.csv</t>
+          <t>ZM_stims-16509961036073291.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477813924661.csv</t>
+          <t>MM_stims-16509961036393301.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778139096618.csv</t>
+          <t>ZM_stims-16509961036232955.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477813970661.csv</t>
+          <t>vSAT_stims-16509961036873302.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778139286602.csv</t>
+          <t>SAT_stims-16509961036393301.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778139396648.csv</t>
+          <t>vSAT_stims-16509961036713355.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778139546614.csv</t>
+          <t>SAT_stims-16509961036553314.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996101607332" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961035913308" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961035913308" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961036393301" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961037033315" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168694009415" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686973111417" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686973121386" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686973741453" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168697468178" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961015753045.csv</t>
+          <t>go_stims-16511686939703863.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961015913374.csv</t>
+          <t>GNG_stims-16511686939923859.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961015913374.csv</t>
+          <t>go_stims-1651168693993388.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996101607332.csv</t>
+          <t>GNG_stims-1651168694008387.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961018873012.csv</t>
+          <t>OB-165116869466514.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961017352948.csv</t>
+          <t>TB-16511686972881389.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961034713292.csv</t>
+          <t>TB-16511686969821477.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650996102479317.csv</t>
+          <t>OB-1651168695771137.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961019753022.csv</t>
+          <t>ZB-match_7-165116869431014.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961035593297.csv</t>
+          <t>OB-16511686957481723.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961029912965.csv</t>
+          <t>ZB-match_3-16511686943781404.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961026473417.csv</t>
+          <t>TB-16511686959681723.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961021593323.csv</t>
+          <t>ZB-match_5-16511686941333857.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961036073291.csv</t>
+          <t>MM_stims-16511686973261685.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961035913308.csv</t>
+          <t>ZM_stims-16511686973141446.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961036232955.csv</t>
+          <t>MM_stims-16511686973571439.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961036073291.csv</t>
+          <t>ZM_stims-16511686973271406.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961036393301.csv</t>
+          <t>MM_stims-16511686973731472.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961036232955.csv</t>
+          <t>ZM_stims-16511686973581495.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961036873302.csv</t>
+          <t>SAT_stims-165116869740414.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961036393301.csv</t>
+          <t>vSAT_stims-16511686974201796.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961036713355.csv</t>
+          <t>vSAT_stims-16511686974521418.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961036553314.csv</t>
+          <t>SAT_stims-16511686973791435.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168694009415" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686973111417" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686973121386" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686973741453" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168697468178" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555242510908" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165125552534096" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555253469613" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555254039638" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555254799607" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686939703863.csv</t>
+          <t>go_stims-16512555242200916.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686939923859.csv</t>
+          <t>GNG_stims-16512555242340908.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168693993388.csv</t>
+          <t>go_stims-16512555242360907.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168694008387.csv</t>
+          <t>GNG_stims-16512555242500901.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-165116869466514.csv</t>
+          <t>ZB-match_9-16512555243930907.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686972881389.csv</t>
+          <t>OB-16512555248879654.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511686969821477.csv</t>
+          <t>TB-165125552532796.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1651168695771137.csv</t>
+          <t>ZB-match_0-16512555245829608.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-165116869431014.csv</t>
+          <t>TB-1651255525228961.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511686957481723.csv</t>
+          <t>OB-16512555251699667.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511686943781404.csv</t>
+          <t>TB-16512555252549627.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686959681723.csv</t>
+          <t>OB-16512555249529595.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686941333857.csv</t>
+          <t>ZB-match_4-16512555247449646.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686973261685.csv</t>
+          <t>MM_stims-16512555253709655.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686973141446.csv</t>
+          <t>ZM_stims-16512555253499615.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686973571439.csv</t>
+          <t>MM_stims-16512555253869631.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686973271406.csv</t>
+          <t>ZM_stims-1651255525371964.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686973731472.csv</t>
+          <t>MM_stims-16512555254029608.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686973581495.csv</t>
+          <t>ZM_stims-16512555253879635.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-165116869740414.csv</t>
+          <t>vSAT_stims-16512555254489622.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686974201796.csv</t>
+          <t>SAT_stims-16512555254339607.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686974521418.csv</t>
+          <t>vSAT_stims-16512555254649634.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686973791435.csv</t>
+          <t>SAT_stims-1651255525407964.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_16/participant_16_task_orders.xlsx
+++ b/participants/participant_16/participant_16_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555242510908" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-165125552534096" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555253469613" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555254039638" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555254799607" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-16515889550649657" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889551075194" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651588955190023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515889552633896" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515889573311532" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555242200916.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -460,27 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555242340908.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>go_stims-16512555242360907.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GNG_stims-16512555242500901.csv</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -495,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555243930907.csv</t>
+          <t>go_stims-16515889550707877.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555248879654.csv</t>
+          <t>GNG_stims-1651588955090667.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-165125552532796.csv</t>
+          <t>go_stims-16515889550927384.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512555245829608.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-1651255525228961.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OB-16512555251699667.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555252549627.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512555249529595.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_4-16512555247449646.csv</t>
+          <t>GNG_stims-16515889551064103.csv</t>
         </is>
       </c>
     </row>
@@ -611,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>SAT_stims-1651588955112476.csv</t>
         </is>
       </c>
     </row>
@@ -642,7 +572,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>SAT_stims-16515889551379476.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889551748638.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889551596172.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555253709655.csv</t>
+          <t>MM_stims-1651588955221924.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555253499615.csv</t>
+          <t>ZM_stims-16515889551963995.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555253869631.csv</t>
+          <t>MM_stims-16515889552370114.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255525371964.csv</t>
+          <t>ZM_stims-16515889552229319.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555254029608.csv</t>
+          <t>MM_stims-165158895526239.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555253879635.csv</t>
+          <t>ZM_stims-16515889552379646.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555254489622.csv</t>
+          <t>OB-16515889558320196.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555254339607.csv</t>
+          <t>TB-16515889564625697.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555254649634.csv</t>
+          <t>TB-16515889569751148.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255525407964.csv</t>
+          <t>ZB-match_1-16515889555728264.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZB-match_1-16515889557215617.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OB-16515889559706826.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-1651588957317661.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_0-16515889556321492.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515889563917174.csv</t>
         </is>
       </c>
     </row>
